--- a/fanta-scraping-main/fanta-scraping/Objective Function.xlsx
+++ b/fanta-scraping-main/fanta-scraping/Objective Function.xlsx
@@ -1,26 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dipierrof\Desktop\fanta-scraping-main\fanta-scraping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A45502-412F-423E-A229-FA897C18A5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <r>
       <rPr>
@@ -74,22 +67,22 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Per anno corrente : _0</t>
-  </si>
-  <si>
-    <t>Per 1 anno passato: _1</t>
-  </si>
-  <si>
-    <t>Per 2 anni passati: _2</t>
-  </si>
-  <si>
-    <t>numero di partite</t>
-  </si>
-  <si>
-    <t>fanta media</t>
-  </si>
-  <si>
-    <t>media voto</t>
+    <t xml:space="preserve">Per anno corrente : _0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per 1 anno passato: _1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per 2 anni passati: _2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero di partite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fanta media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media voto</t>
   </si>
   <si>
     <t>squadra</t>
@@ -98,7 +91,7 @@
     <t>rigori</t>
   </si>
   <si>
-    <t>gol subiti</t>
+    <t xml:space="preserve">gol subiti</t>
   </si>
   <si>
     <t>assist</t>
@@ -113,149 +106,138 @@
     <t>espulsioni</t>
   </si>
   <si>
-    <t>rigori parati</t>
-  </si>
-  <si>
-    <t>alpha &gt; gamma &gt; beta</t>
-  </si>
-  <si>
-    <t>v_partite va moltiplicato per un numero in base al trend di presenze, cioè se è cresciuto in presenze nelle due stagioni scorse o decresciuto</t>
-  </si>
-  <si>
-    <t>creare 3 soglie empiricamente per valori di v_partite per definire se giocatore è titolare, usato frequentemente, poco usato</t>
-  </si>
-  <si>
-    <t>in base alla soglia di appartenenza hai un punteggio fissato</t>
-  </si>
-  <si>
-    <t>dipende dal numero di partite giocate e fm. Vale tanto stagione passata e corrente, meno due stagioni fa</t>
+    <t xml:space="preserve">rigori parati</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">importa molto partite stagione scorsa, un po' quelle attuali e poco quelle di due anni fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v_partite = ((alpha * partite_1^2 / 38) + (beta * partite_2^2 / 38) + (gamma * partite_0^2 / numero giornate correnti) ) /10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha &gt; gamma &gt; beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta = 0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma = 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v_partite va moltiplicato per un numero in base al trend di presenze, cioè se è cresciuto in presenze nelle due stagioni scorse o decresciuto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creare 3 soglie empiricamente per valori di v_partite per definire se giocatore è titolare, usato frequentemente, poco usato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in base alla soglia di appartenenza hai un punteggio fissato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dipende dal numero di partite giocate e fm. Vale tanto stagione passata e corrente, meno due stagioni fa</t>
   </si>
   <si>
     <t xml:space="preserve">v_fm = (alpha * fm_1 * partite_1 / 38) + (beta * fm_2 * partite_2 / 38) + (gamma * fm_0 * partite_0 / numero giornate correnti)) </t>
   </si>
   <si>
-    <t>alpha &gt; beta</t>
-  </si>
-  <si>
-    <t>alpha = 1</t>
-  </si>
-  <si>
-    <t>beta = 0.6</t>
-  </si>
-  <si>
-    <t>gamma = 1</t>
-  </si>
-  <si>
-    <t>v_fm va moltiplicato per una costante, scelta tra tre, in base al fatto che la fm nei tre anni sia cresciuta, decresciuta, rimasta simile</t>
-  </si>
-  <si>
-    <t>dipende da numero di partite giocate, mv e ruolo. Vale tanto stagione passata e corrente, meno due anni fa. Vale tanto per difensori e portieri, per via del modificatore difesa</t>
+    <t xml:space="preserve">alpha &gt; beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v_fm va moltiplicato per una costante, scelta tra tre, in base al fatto che la fm nei tre anni sia cresciuta, decresciuta, rimasta simile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dipende da numero di partite giocate, mv e ruolo. Vale tanto stagione passata e corrente, meno due anni fa. Vale tanto per difensori e portieri, per via del modificatore difesa</t>
   </si>
   <si>
     <t xml:space="preserve">v_mv = (alpha * mv_1 * partite_1 / 38) + (beta * mv_2 * partite_2 / 38) + (gamma * mv_0 * partite_0 / numero giornate correnti)) </t>
   </si>
   <si>
-    <t>v_mv va moltiplicato per una costante, scelta tra tre, in base al fatto che la mv nei tre anni sia cresciuta, decresciuta, rimasta simile</t>
-  </si>
-  <si>
-    <t>infine mv va moltiplicata per una costante maggiore per difensori e portieri, minore per centrocampisti e attaccanti</t>
-  </si>
-  <si>
-    <t>v_squadra = (alpha * scaglione_1) + (beta * scaglione_2) + (gamma * scaglione_0)</t>
-  </si>
-  <si>
-    <t>alpha &gt; beta &gt; gamma</t>
-  </si>
-  <si>
-    <t>beta = 0.7</t>
-  </si>
-  <si>
-    <t>gamma = 0.5</t>
-  </si>
-  <si>
-    <t>scaglioni: [1-4] = 5; [1-4] = 4; [1-4] = 3; [1-4] = 2; [1-4] = 1; se non era presente in classifica scaglione dà 0</t>
-  </si>
-  <si>
-    <t>conta tanto essere rigoristi, che dà un bonus se hai tirato almeno 5 rigori, e avere buone percentuali di successo; conta uguale negli ultimi 2 anni, meno 2 anni fa</t>
-  </si>
-  <si>
-    <t>v_rigori = [alpha * (rigori segnati_0 + rigori segnati_1 / (rigori tentati_0 + rigori tentati_1) * (rigori segnati_0 + rigori segnati_1)] + [beta * (rigori segnati_2 / (rigori tentati_2) * (rigori segnati_2)]</t>
-  </si>
-  <si>
-    <t>solo per portieri, simile a rigori, ma totale sui 3 anni</t>
-  </si>
-  <si>
-    <t>v_rp = (rp_0 + rp_1 + rp_2) * alpha</t>
-  </si>
-  <si>
-    <t>alpha serve per scalare il valore di rp sul valore totale del portiere: non deve valere troppo, vale di più la mv (per dire)</t>
-  </si>
-  <si>
-    <t>non importa, rientrano nei valori di mv e fm</t>
-  </si>
-  <si>
-    <t>dipende da numero partite conta tanto anno passato, meno due anni fa, poco quest'anno; malus maggiorato per attaccanti</t>
-  </si>
-  <si>
-    <t>v_amm = - [(alpha * amm_1 * partite_1 / 38) + (beta * amm_2 * partite_2 / 38) + (gamma * amm_0 * partite_0 / 38)]</t>
-  </si>
-  <si>
-    <t>v_amm va moltiplicato per 1.5 per gli attaccanti</t>
-  </si>
-  <si>
-    <t>v_esp = - [(alpha * esp_1 * partite_1 / 38) + (beta * esp_2 * partite_2 / 38) + (gamma * esp_0 * partite_0 / 38)]</t>
-  </si>
-  <si>
-    <t>v_esp va moltiplicato per 1.5 per gli attaccanti</t>
-  </si>
-  <si>
-    <t>importa molto partite stagione scorsa, un po' quelle attuali e poco quelle di due anni fa</t>
-  </si>
-  <si>
-    <t>solo per portieri, dipende da valore squadra e media gol subiti annua</t>
-  </si>
-  <si>
-    <t>dipende dalla posizione in classifica della squadra corrente per dire quanto è più appetibile un giocatore</t>
-  </si>
-  <si>
-    <t>v_gs = v_squadra * alpha * (gs_0 + gs_1 + gs_2) / (partite_0 + partite_1 + partite_2)</t>
-  </si>
-  <si>
-    <t>alpha serve per scalare il valore di v_gs sul valore totale del portiere</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DONE</t>
-  </si>
-  <si>
-    <t>v_partite = ((alpha * partite_1^2 / 38) + (beta * partite_2^2 / 38) + (gamma * partite_0^2 / numero giornate correnti) ) /10</t>
-  </si>
-  <si>
-    <t>gamma = 10</t>
+    <t xml:space="preserve">v_mv va moltiplicato per una costante, scelta tra tre, in base al fatto che la mv nei tre anni sia cresciuta, decresciuta, rimasta simile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infine mv va moltiplicata per una costante maggiore per difensori e portieri, minore per centrocampisti e attaccanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dipende dalla posizione in classifica della squadra corrente per dire quanto è più appetibile un giocatore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v_squadra = (alpha * scaglione_1) + (beta * scaglione_2) + (gamma * scaglione_0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha &gt; beta &gt; gamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta = 0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma = 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scaglioni: [1-4] = 5; [1-4] = 4; [1-4] = 3; [1-4] = 2; [1-4] = 1; se non era presente in classifica scaglione dà 0</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conta tanto essere rigoristi, che dà un bonus se hai tirato almeno 5 rigori, e avere buone percentuali di successo; conta uguale negli ultimi 2 anni, meno 2 anni fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v_rigori = [alpha * (rigori segnati_0 + rigori segnati_1 / (rigori tentati_0 + rigori tentati_1) * (rigori segnati_0 + rigori segnati_1)] + [beta * (rigori segnati_2 / (rigori tentati_2) * (rigori segnati_2)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solo per portieri, simile a rigori, ma totale sui 3 anni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v_rp = (rp_0 + rp_1 + rp_2) * alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha serve per scalare il valore di rp sul valore totale del portiere: non deve valere troppo, vale di più la mv (per dire)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non importa, rientrano nei valori di mv e fm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dipende da numero partite conta tanto anno passato, meno due anni fa, poco quest'anno; malus maggiorato per attaccanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v_amm = - [(alpha * amm_1 * partite_1 / 38) + (beta * amm_2 * partite_2 / 38) + (gamma * amm_0 * partite_0 / 38)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v_amm va moltiplicato per 1.5 per gli attaccanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v_esp = - [(alpha * esp_1 * partite_1 / 38) + (beta * esp_2 * partite_2 / 38) + (gamma * esp_0 * partite_0 / 38)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v_esp va moltiplicato per 1.5 per gli attaccanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solo per portieri, dipende da valore squadra e media gol subiti annua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v_gs = v_squadra * alpha * (gs_0 + gs_1 + gs_2) / (partite_0 + partite_1 + partite_2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha serve per scalare il valore di v_gs sul valore totale del portiere</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -343,26 +325,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="13">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,15 +351,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -584,28 +842,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A49" zoomScale="100" workbookViewId="0">
+      <selection activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1"/>
-    <col min="4" max="4" width="27" bestFit="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1"/>
+    <col customWidth="1" min="1" max="1" width="40.42578125"/>
+    <col customWidth="1" min="2" max="2" width="8.28515625"/>
+    <col bestFit="1" min="3" max="3" width="35"/>
+    <col bestFit="1" min="4" max="4" width="27"/>
+    <col bestFit="1" min="5" max="5" width="28.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,398 +878,412 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="25">
+      <c r="C25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="C27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="C32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="C33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="C34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35">
+      <c r="C35" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="C36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="C38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="C39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="C40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="C41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="C42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="C43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="C44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
       <c r="C46" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="C47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="C48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="C49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="C50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
       <c r="C52" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="C53" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="C54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="C56" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="C57" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="C58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="C61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="C62" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="C63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="C64" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="C65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="C66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s">
+        <v>41</v>
+      </c>
       <c r="C68" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" s="15"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="12"/>
+    </row>
+    <row r="70">
       <c r="C70" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="15"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D70" s="12"/>
+    </row>
+    <row r="71">
       <c r="C71" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="15"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D71" s="12"/>
+    </row>
+    <row r="72">
       <c r="C72" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="15"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D72" s="12"/>
+    </row>
+    <row r="73">
       <c r="C73" t="s">
-        <v>34</v>
-      </c>
-      <c r="D73" s="15"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D74" s="15"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D73" s="12"/>
+    </row>
+    <row r="74">
+      <c r="C74" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="12"/>
+    </row>
+    <row r="76">
       <c r="C76" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="C77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="C78" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>